--- a/docs/metabobank/metadata_excel/MetaboBank_NMR_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_NMR_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7082FBB-2C0F-4B69-B4A5-4E05A60D7851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE65900-EF2A-469B-945F-54B5DCF5A893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="12"/>
